--- a/data/raw/link_templates.xlsx
+++ b/data/raw/link_templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaksuman\Desktop\development\UNV\unv_SDG_AI_LAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan\Documents\GitHub\unv_SDG_AI_LAB\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BC104F-CF6C-44A2-8283-21E87B05F401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA94F8F-AC8D-48B8-BFEF-D95C5A1C71BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-1840" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>first part</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>presscenter</t>
+  </si>
+  <si>
+    <t>/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+  </si>
+  <si>
+    <t>learn-more-page</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +482,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
